--- a/htdocs/resources/excel/template.xlsx
+++ b/htdocs/resources/excel/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\root\study\laravel-react-boilerplate\htdocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\root\study\laravel-react-boilerplate\htdocs\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E8E3AB-47C2-4BB4-8A46-CAE3E6B44782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFF2B9F-844C-49B9-842E-281D706F8F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E2C9D0D-71E4-4AFE-AD5A-AAF57E04E9F1}"/>
+    <workbookView xWindow="3144" yWindow="2112" windowWidth="18528" windowHeight="9984" xr2:uid="{1E2C9D0D-71E4-4AFE-AD5A-AAF57E04E9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>ほげ</t>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -44,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,21 +74,51 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -83,9 +127,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,26 +451,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4708394-17E6-4E48-993A-694CC4780A43}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.69921875" customWidth="1"/>
+    <col min="2" max="2" width="53.09765625" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
